--- a/src/main/resources/AutoData.xlsx
+++ b/src/main/resources/AutoData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mdnas/git/TDD_Geico/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C7D6D-B0F9-FA4A-81FC-E2325D3B7EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121208D8-FF32-5647-8E2D-A6B7B73522BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="800" windowWidth="28040" windowHeight="17440" xr2:uid="{2E2A757E-B975-8047-A1F0-B7EEED866E15}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>DOB</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Matthew</t>
+  </si>
+  <si>
+    <t>11418</t>
   </si>
 </sst>
 </file>
@@ -482,7 +485,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,7 +517,9 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
@@ -594,6 +599,9 @@
       </c>
       <c r="H9" t="s">
         <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
